--- a/Actitime/data/TestScript1.xlsx
+++ b/Actitime/data/TestScript1.xlsx
@@ -3,26 +3,39 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5F972DE1-28F3-4B38-BEEB-CB831E2D0F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanpri\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D256A-9F2E-4598-B91C-4B59EC5A6C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0E334D8B-6256-4FCD-A655-86C54D7B3725}"/>
   </bookViews>
   <sheets>
     <sheet name="create customer" sheetId="1" r:id="rId1"/>
-    <sheet name="create project" sheetId="2" r:id="rId2"/>
+    <sheet name="create user" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:W23"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>slno</t>
   </si>
@@ -45,50 +58,130 @@
     <t>bangalore</t>
   </si>
   <si>
-    <t>project name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Edlik</t>
-  </si>
-  <si>
-    <t>our company</t>
-  </si>
-  <si>
-    <t>simson</t>
-  </si>
-  <si>
-    <t>kayya</t>
-  </si>
-  <si>
-    <t>junaik</t>
-  </si>
-  <si>
-    <t>lotta</t>
-  </si>
-  <si>
-    <t>daikin</t>
-  </si>
-  <si>
-    <t>samsung</t>
-  </si>
-  <si>
-    <t>guik</t>
-  </si>
-  <si>
-    <t>deudfr</t>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>virat</t>
+  </si>
+  <si>
+    <t>kohli</t>
+  </si>
+  <si>
+    <t>virat@gmail.com</t>
+  </si>
+  <si>
+    <t>virat123</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>rohit@gmail.com</t>
+  </si>
+  <si>
+    <t>rohit123</t>
+  </si>
+  <si>
+    <t>sachin</t>
+  </si>
+  <si>
+    <t>tendulkar</t>
+  </si>
+  <si>
+    <t>sachin@gmail.com</t>
+  </si>
+  <si>
+    <t>sachin123</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>dravid</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>rahul@123</t>
+  </si>
+  <si>
+    <t>kapil</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>kapil@gmail.com</t>
+  </si>
+  <si>
+    <t>kapil@123</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>kl@gmail.com</t>
+  </si>
+  <si>
+    <t>kl@123</t>
+  </si>
+  <si>
+    <t>hire-month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>october</t>
+  </si>
+  <si>
+    <t>january</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>march</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,13 +204,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,100 +572,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F39C5A-4F86-4528-9E34-A402038E3BB4}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4F488C-CCD8-47D9-BEE6-A62260292742}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>2019</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>2009</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>2015</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>2018</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9ED9B5DA-E0E8-4148-8DD9-5FFF478484DB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3A5CE9EC-D348-454C-8122-EC2FADC1E751}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{29FA7A0B-56D2-4698-BC97-59FB6BD37A6B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{05BA0AC3-E04C-4286-AD09-4252098E681B}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{7F64E8E1-8362-4953-BEC2-2314DCEC9013}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{4ED97099-91BB-4EB4-B929-4CDD54E83FC2}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{35E54538-E2F6-4BC8-A7CB-D6A4E9F6A1B1}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{536B437E-7AD7-4C3F-B977-7AFBC6181154}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{285619E5-AD45-49D2-BA86-1F884E77E41E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>